--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -805,7 +805,7 @@
         <v>2.72</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.44</v>
@@ -814,7 +814,7 @@
         <v>2.72</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>4.6</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
         <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I5" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="J5" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
         <v>1.58</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
@@ -1150,34 +1150,34 @@
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -679,7 +679,7 @@
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
         <v>5.2</v>
@@ -805,16 +805,16 @@
         <v>2.72</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>4.6</v>
@@ -940,16 +940,16 @@
         <v>3.15</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
         <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>4.9</v>
@@ -1075,16 +1075,16 @@
         <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I5" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
         <v>5.3</v>
@@ -1102,19 +1102,19 @@
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>2.06</v>
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>15.5</v>
@@ -1141,43 +1141,43 @@
         <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>70</v>
       </c>
       <c r="AG5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH5" t="n">
         <v>28</v>
       </c>
-      <c r="AH5" t="n">
-        <v>26</v>
-      </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
         <v>85</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
         <v>5.2</v>
@@ -700,7 +700,7 @@
         <v>2.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -805,16 +805,16 @@
         <v>2.72</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
         <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>4.6</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q4" t="n">
         <v>1.51</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
         <v>2.44</v>
@@ -1114,10 +1114,10 @@
         <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
         <v>12</v>
@@ -1138,28 +1138,28 @@
         <v>15.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF5" t="n">
         <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
         <v>240</v>
@@ -1168,10 +1168,10 @@
         <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.63</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>1.07</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -793,49 +793,49 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.72</v>
       </c>
-      <c r="G3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.22</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -928,31 +928,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,136 +1048,271 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FC Basel</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Scottish Premiership</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>2025-12-17</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Dundee Utd</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Celtic</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G6" t="n">
         <v>8</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.4</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.03</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N6" t="n">
         <v>5.1</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>1.2</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.6</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R6" t="n">
         <v>1.57</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S6" t="n">
         <v>2.5</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="T6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
         <v>12</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
         <v>15.5</v>
       </c>
-      <c r="AB5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>240</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AF6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK6" t="n">
         <v>110</v>
       </c>
-      <c r="AL5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AL6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM6" t="n">
         <v>130</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN6" t="n">
         <v>120</v>
       </c>
-      <c r="AO5" t="n">
-        <v>6.8</v>
+      <c r="AO6" t="n">
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -808,13 +808,13 @@
         <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I3" t="n">
         <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
         <v>5.2</v>
@@ -940,10 +940,10 @@
         <v>2.74</v>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I4" t="n">
         <v>2.74</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
         <v>3.7</v>
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         <v>1.48</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J6" t="n">
         <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1276,22 +1276,22 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
         <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1300,13 +1300,13 @@
         <v>230</v>
       </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>2.64</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.01</v>
       </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.01</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -943,10 +943,10 @@
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I4" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>1.7</v>
@@ -1210,7 +1210,7 @@
         <v>7.2</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="H6" t="n">
         <v>1.48</v>
@@ -1219,7 +1219,7 @@
         <v>1.49</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K6" t="n">
         <v>5.2</v>
@@ -1243,16 +1243,16 @@
         <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,28 +1261,28 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AF6" t="n">
         <v>60</v>
@@ -1294,10 +1294,10 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AK6" t="n">
         <v>120</v>
@@ -1309,10 +1309,10 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,43 +667,43 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
         <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>2.58</v>
@@ -712,13 +712,13 @@
         <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
         <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,16 +805,16 @@
         <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
         <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
         <v>5.2</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>7.2</v>
       </c>
       <c r="G6" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
         <v>5.2</v>
@@ -1249,10 +1249,10 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
         <v>60</v>
@@ -1294,10 +1294,10 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AK6" t="n">
         <v>120</v>
@@ -1312,7 +1312,7 @@
         <v>130</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
         <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -817,97 +817,97 @@
         <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.5</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I4" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
@@ -955,94 +955,94 @@
         <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,10 +1075,10 @@
         <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I5" t="n">
         <v>2.16</v>
@@ -1087,19 +1087,19 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
         <v>2.66</v>
@@ -1108,76 +1108,76 @@
         <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1210,22 +1210,22 @@
         <v>7.2</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="I6" t="n">
         <v>1.52</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
         <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1240,7 +1240,7 @@
         <v>2.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>1.57</v>
@@ -1249,25 +1249,25 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
         <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
         <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>15.5</v>
@@ -1276,43 +1276,43 @@
         <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AK6" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AL6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN6" t="n">
         <v>100</v>
       </c>
-      <c r="AM6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>130</v>
-      </c>
       <c r="AO6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>2.68</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R2" t="n">
         <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
         <v>5.3</v>
@@ -817,7 +817,7 @@
         <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
         <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U3" t="n">
         <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
         <v>29</v>
@@ -880,7 +880,7 @@
         <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -904,10 +904,10 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,10 +967,10 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
         <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I5" t="n">
         <v>2.16</v>
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1108,16 +1108,16 @@
         <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V5" t="n">
         <v>1.87</v>
@@ -1141,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
         <v>16</v>
@@ -1156,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>36</v>
@@ -1165,7 +1165,7 @@
         <v>80</v>
       </c>
       <c r="AK5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
         <v>48</v>
@@ -1174,10 +1174,10 @@
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G6" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>1.49</v>
@@ -1219,7 +1219,7 @@
         <v>1.52</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
         <v>5.2</v>
@@ -1231,16 +1231,16 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
         <v>1.57</v>
@@ -1249,28 +1249,28 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="W6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
         <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB6" t="n">
         <v>32</v>
@@ -1288,16 +1288,16 @@
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK6" t="n">
         <v>95</v>
@@ -1312,7 +1312,7 @@
         <v>100</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -673,7 +673,7 @@
         <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I2" t="n">
         <v>3.55</v>
@@ -682,7 +682,7 @@
         <v>2.68</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -694,13 +694,13 @@
         <v>2.22</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
         <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.41</v>
@@ -718,7 +718,7 @@
         <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -811,13 +811,13 @@
         <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -832,25 +832,25 @@
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="S3" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="T3" t="n">
         <v>1.51</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>2.58</v>
@@ -859,10 +859,10 @@
         <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
         <v>160</v>
@@ -874,25 +874,25 @@
         <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK3" t="n">
         <v>15</v>
@@ -907,7 +907,7 @@
         <v>6.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,88 +961,88 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
         <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH4" t="n">
         <v>19</v>
       </c>
-      <c r="AH4" t="n">
-        <v>23</v>
-      </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,88 +1096,88 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>2.66</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
         <v>16</v>
       </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>22</v>
-      </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="6">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
         <v>1.52</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
         <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
@@ -1243,7 +1243,7 @@
         <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1255,7 +1255,7 @@
         <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="W6" t="n">
         <v>1.14</v>
@@ -1267,7 +1267,7 @@
         <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AA6" t="n">
         <v>14.5</v>
@@ -1276,10 +1276,10 @@
         <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>14.5</v>
@@ -1297,7 +1297,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AK6" t="n">
         <v>95</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -673,37 +673,37 @@
         <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
         <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.22</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
         <v>2.3</v>
@@ -718,7 +718,7 @@
         <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -808,7 +808,7 @@
         <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I3" t="n">
         <v>5.9</v>
@@ -826,7 +826,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
@@ -844,7 +844,7 @@
         <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U3" t="n">
         <v>2.18</v>
@@ -853,13 +853,13 @@
         <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
         <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
         <v>55</v>
@@ -904,7 +904,7 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AO3" t="n">
         <v>44</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
@@ -955,31 +955,31 @@
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
         <v>2.32</v>
@@ -988,13 +988,13 @@
         <v>1.58</v>
       </c>
       <c r="W4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
         <v>23</v>
@@ -1003,13 +1003,13 @@
         <v>44</v>
       </c>
       <c r="AB4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>32</v>
@@ -1024,25 +1024,25 @@
         <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
         <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1081,13 +1081,13 @@
         <v>2.08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1108,10 +1108,10 @@
         <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
         <v>1.53</v>
@@ -1120,7 +1120,7 @@
         <v>2.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
@@ -1216,13 +1216,13 @@
         <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J6" t="n">
         <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.3</v>
@@ -1237,7 +1237,7 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
@@ -1255,7 +1255,7 @@
         <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="W6" t="n">
         <v>1.14</v>
@@ -1276,7 +1276,7 @@
         <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
         <v>13</v>
@@ -1297,7 +1297,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AK6" t="n">
         <v>95</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
         <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
         <v>3.55</v>
@@ -688,31 +688,31 @@
         <v>1.27</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
         <v>1.39</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
         <v>5.9</v>
@@ -829,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
         <v>2.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
         <v>1.74</v>
@@ -844,19 +844,19 @@
         <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
@@ -940,10 +940,10 @@
         <v>2.74</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I4" t="n">
         <v>2.72</v>
@@ -955,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -970,7 +970,7 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
         <v>1.49</v>
@@ -982,7 +982,7 @@
         <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
         <v>1.58</v>
@@ -1024,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
         <v>55</v>
@@ -1033,13 +1033,13 @@
         <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
@@ -1081,7 +1081,7 @@
         <v>2.08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
@@ -1090,7 +1090,7 @@
         <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1108,7 +1108,7 @@
         <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
         <v>2.32</v>
@@ -1120,10 +1120,10 @@
         <v>2.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1216,7 +1216,7 @@
         <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="J6" t="n">
         <v>4.8</v>
@@ -1249,13 +1249,13 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="W6" t="n">
         <v>1.14</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Iskenderunspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.42</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Batman Petrolspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.59</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>1.24</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.8</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.74</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.16</v>
+        <v>1.02</v>
       </c>
       <c r="T3" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.44</v>
+        <v>1.28</v>
       </c>
       <c r="I4" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>1.21</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>1.21</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.09</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,255 +1063,525 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>1.63</v>
       </c>
       <c r="H5" t="n">
-        <v>2.08</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.14</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W5" t="n">
         <v>2.58</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.37</v>
-      </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
         <v>980</v>
       </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12</v>
-      </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FC Zurich</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FC Basel</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Scottish Premiership</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>2025-12-17</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Dundee Utd</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Celtic</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F8" t="n">
         <v>7.2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G8" t="n">
         <v>8</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H8" t="n">
         <v>1.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="I8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
         <v>5.1</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="O8" t="n">
         <v>1.2</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P8" t="n">
         <v>2.42</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="Q8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.5</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T8" t="n">
         <v>1.8</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U8" t="n">
         <v>2.1</v>
       </c>
-      <c r="V6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="V8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.14</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X8" t="n">
         <v>23</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y8" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="Z8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB8" t="n">
         <v>32</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC8" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD8" t="n">
         <v>13</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE8" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF8" t="n">
         <v>60</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG8" t="n">
         <v>27</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH8" t="n">
         <v>22</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI8" t="n">
         <v>38</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ8" t="n">
         <v>220</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK8" t="n">
         <v>95</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL8" t="n">
         <v>85</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM8" t="n">
         <v>110</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN8" t="n">
         <v>100</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO8" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.02</v>
@@ -706,7 +706,7 @@
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
         <v>1.63</v>
@@ -1081,7 +1081,7 @@
         <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1090,43 +1090,43 @@
         <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
         <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
         <v>2.58</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
@@ -1135,13 +1135,13 @@
         <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1174,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO5" t="n">
         <v>44</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
         <v>2.46</v>
@@ -1225,31 +1225,31 @@
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.63</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.64</v>
       </c>
       <c r="U6" t="n">
         <v>2.32</v>
@@ -1258,61 +1258,61 @@
         <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF6" t="n">
         <v>22</v>
       </c>
-      <c r="Y6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>26</v>
-      </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G7" t="n">
         <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1366,31 +1366,31 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
         <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U7" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V7" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>1.37</v>
@@ -1399,7 +1399,7 @@
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
         <v>12</v>
@@ -1426,7 +1426,7 @@
         <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="8">
@@ -1483,73 +1483,73 @@
         <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
         <v>2.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="W8" t="n">
         <v>1.14</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="n">
         <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
         <v>14.5</v>
@@ -1558,19 +1558,19 @@
         <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
         <v>220</v>
       </c>
       <c r="AK8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>85</v>
@@ -1579,10 +1579,10 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -691,16 +691,16 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.02</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="H4" t="n">
-        <v>1.28</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.21</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.21</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.21</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1078,13 +1078,13 @@
         <v>1.63</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K5" t="n">
         <v>5.1</v>
@@ -1096,28 +1096,28 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V5" t="n">
         <v>1.22</v>
@@ -1126,22 +1126,22 @@
         <v>2.58</v>
       </c>
       <c r="X5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1162,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
@@ -1174,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
         <v>44</v>
@@ -1216,34 +1216,34 @@
         <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" t="n">
         <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
         <v>2.56</v>
@@ -1252,13 +1252,13 @@
         <v>1.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1348,16 +1348,16 @@
         <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="I7" t="n">
         <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1366,25 +1366,25 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
         <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="S7" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="n">
         <v>2.66</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>12</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G8" t="n">
         <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1504,43 +1504,43 @@
         <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>2.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="W8" t="n">
         <v>1.14</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
         <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="n">
         <v>38</v>
@@ -1549,7 +1549,7 @@
         <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
         <v>14.5</v>
@@ -1564,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
         <v>220</v>
@@ -1582,7 +1582,7 @@
         <v>95</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,21 +653,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Iskenderunspor</t>
+          <t>Ankara Demirspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>Kahramanmaras Istiklal Spor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -676,37 +676,37 @@
         <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -788,17 +788,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>Erbaaspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Batman Petrolspor</t>
+          <t>Elazigspor</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Mersin Idman Yurdu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Isparta 32 Spor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>2.76</v>
+        <v>6.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>1.69</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>1.66</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>1.34</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Iskenderunspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1.63</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>1.02</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>6.2</v>
+        <v>1.34</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="T5" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,105 +1193,105 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.74</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>2.46</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>1.71</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1309,16 +1309,16 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,72 +1328,72 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Batman Petrolspor</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.35</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>9.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>5.6</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>1.74</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1405,16 +1405,16 @@
         <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,37 +1423,37 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,666 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.4</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>1.52</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
         <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="U8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Grasshoppers Zurich</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FC Zurich</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FC Basel</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Dundee Utd</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.14</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V12" t="n">
         <v>2.92</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W12" t="n">
         <v>1.14</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X12" t="n">
         <v>23</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD12" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AE12" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF12" t="n">
         <v>60</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG12" t="n">
         <v>26</v>
       </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>220</v>
       </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AK12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL12" t="n">
         <v>85</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM12" t="n">
         <v>110</v>
       </c>
-      <c r="AN8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.2</v>
+      <c r="AN12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>3.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>1.79</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.81</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="G4" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.66</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.34</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.71</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1360,7 +1360,7 @@
         <v>9.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1378,7 +1378,7 @@
         <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
         <v>1.74</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="T8" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.61</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.64</v>
-      </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1651,7 +1651,7 @@
         <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T9" t="n">
         <v>1.61</v>
@@ -1663,7 +1663,7 @@
         <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="X9" t="n">
         <v>29</v>
@@ -1675,7 +1675,7 @@
         <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1684,10 +1684,10 @@
         <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
@@ -1702,7 +1702,7 @@
         <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -1717,7 +1717,7 @@
         <v>5.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
@@ -1750,13 +1750,13 @@
         <v>2.74</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
@@ -1780,13 +1780,13 @@
         <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
         <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
         <v>1.63</v>
@@ -1798,7 +1798,7 @@
         <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
         <v>19</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
         <v>3.65</v>
@@ -1894,19 +1894,19 @@
         <v>2.18</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
@@ -1915,19 +1915,19 @@
         <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U11" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="V11" t="n">
         <v>1.84</v>
@@ -1939,7 +1939,7 @@
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>12</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="J12" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2047,82 +2047,82 @@
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="W12" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>11</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC12" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK12" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="n">
         <v>85</v>
       </c>
-      <c r="AM12" t="n">
-        <v>110</v>
-      </c>
       <c r="AN12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,70 +667,70 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="I2" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>19.5</v>
@@ -745,10 +745,10 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
@@ -757,22 +757,22 @@
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>120</v>
       </c>
-      <c r="AK2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>95</v>
-      </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>8.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -973,7 +973,7 @@
         <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
         <v>3.15</v>
@@ -985,64 +985,64 @@
         <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="H6" t="n">
         <v>2.84</v>
@@ -1219,7 +1219,7 @@
         <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
@@ -1258,7 +1258,7 @@
         <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
         <v>16.5</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.75</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
@@ -1381,7 +1381,7 @@
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.74</v>
+        <v>2.54</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,123 +1463,123 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>1.51</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.51</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>2.68</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="R9" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>2.62</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,105 +1733,105 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>San Juan FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.96</v>
+        <v>980</v>
       </c>
       <c r="H10" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>980</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>1.26</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>1.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>1.21</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1849,10 +1849,10 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,256 +1873,661 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>1.61</v>
       </c>
       <c r="H11" t="n">
-        <v>2.08</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="S11" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.84</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB11" t="n">
         <v>15</v>
       </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
         <v>15</v>
       </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>980</v>
-      </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FC Zurich</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FC Basel</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Scottish Premiership</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2025-12-17</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Dundee Utd</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Celtic</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F14" t="n">
         <v>6.6</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.63</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="R14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Potiguar</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Esporte Clube de Patos</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>1.04</v>
       </c>
-      <c r="N12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X12" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6.6</v>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="I2" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -691,46 +691,46 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>19.5</v>
@@ -745,34 +745,34 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
         <v>26</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -811,10 +811,10 @@
         <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -940,58 +940,58 @@
         <v>5.2</v>
       </c>
       <c r="G4" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I4" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>9.6</v>
@@ -1000,28 +1000,28 @@
         <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
         <v>48</v>
@@ -1030,10 +1030,10 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1213,13 +1213,13 @@
         <v>2.74</v>
       </c>
       <c r="H6" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
@@ -1228,7 +1228,7 @@
         <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3.05</v>
@@ -1237,10 +1237,10 @@
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
@@ -1249,16 +1249,16 @@
         <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
         <v>16.5</v>
@@ -1285,7 +1285,7 @@
         <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
         <v>14</v>
@@ -1297,7 +1297,7 @@
         <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="n">
         <v>32</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.54</v>
+        <v>1.94</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1393,7 +1393,7 @@
         <v>2.16</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.51</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>2.16</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK8" t="n">
         <v>32</v>
       </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H9" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.37</v>
@@ -1636,31 +1636,31 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
         <v>1.56</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -1783,16 +1783,16 @@
         <v>1.21</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.01</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H11" t="n">
         <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J11" t="n">
         <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1921,7 +1921,7 @@
         <v>1.74</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
@@ -1933,7 +1933,7 @@
         <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="X11" t="n">
         <v>29</v>
@@ -1945,7 +1945,7 @@
         <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
@@ -1954,10 +1954,10 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AO11" t="n">
         <v>46</v>
@@ -2020,10 +2020,10 @@
         <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I12" t="n">
         <v>2.74</v>
@@ -2065,10 +2065,10 @@
         <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
@@ -2155,13 +2155,13 @@
         <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
         <v>2.08</v>
       </c>
       <c r="I13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="n">
         <v>3.8</v>
@@ -2185,7 +2185,7 @@
         <v>2.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R13" t="n">
         <v>1.62</v>
@@ -2200,7 +2200,7 @@
         <v>2.6</v>
       </c>
       <c r="V13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
         <v>1.37</v>
@@ -2290,19 +2290,19 @@
         <v>6.6</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.59</v>
       </c>
-      <c r="I14" t="n">
-        <v>1.62</v>
-      </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.31</v>
@@ -2317,34 +2317,34 @@
         <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
         <v>1.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S14" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="W14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
         <v>11</v>
@@ -2353,7 +2353,7 @@
         <v>15.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
@@ -2365,34 +2365,34 @@
         <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
         <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AK14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL14" t="n">
         <v>75</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>70</v>
       </c>
       <c r="AM14" t="n">
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="15">
@@ -2449,7 +2449,7 @@
         <v>1.01</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
         <v>1.24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,88 +667,88 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
         <v>12</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AE2" t="n">
         <v>21</v>
       </c>
-      <c r="AB2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="n">
         <v>27</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>120</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,19 +826,19 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
         <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
         <v>1.17</v>
@@ -1006,7 +1006,7 @@
         <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1213,7 +1213,7 @@
         <v>2.74</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3.95</v>
@@ -1234,10 +1234,10 @@
         <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
         <v>1.81</v>
@@ -1351,7 +1351,7 @@
         <v>1.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
         <v>1.03</v>
@@ -1477,34 +1477,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P8" t="n">
         <v>1.68</v>
@@ -1519,22 +1519,22 @@
         <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
         <v>42</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>24</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1567,10 +1567,10 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1618,7 +1618,7 @@
         <v>2.78</v>
       </c>
       <c r="H9" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
         <v>3.25</v>
@@ -1627,7 +1627,7 @@
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.37</v>
@@ -1639,10 +1639,10 @@
         <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
         <v>1.87</v>
@@ -1651,7 +1651,7 @@
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.71</v>
@@ -1759,7 +1759,7 @@
         <v>980</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>980</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="n">
         <v>1.63</v>
@@ -1891,7 +1891,7 @@
         <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J11" t="n">
         <v>4.8</v>
@@ -1921,7 +1921,7 @@
         <v>1.74</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
@@ -1930,7 +1930,7 @@
         <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W11" t="n">
         <v>2.58</v>
@@ -1966,7 +1966,7 @@
         <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO11" t="n">
         <v>46</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
         <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I12" t="n">
         <v>2.74</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2041,7 +2041,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2050,7 +2050,7 @@
         <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
         <v>1.46</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
         <v>3.7</v>
@@ -2164,13 +2164,13 @@
         <v>2.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2179,10 +2179,10 @@
         <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
         <v>1.59</v>
@@ -2191,10 +2191,10 @@
         <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U13" t="n">
         <v>2.6</v>
@@ -2209,7 +2209,7 @@
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2221,10 +2221,10 @@
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2236,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2245,7 +2245,7 @@
         <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
         <v>11.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="G14" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="I14" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.31</v>
@@ -2311,13 +2311,13 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
         <v>1.63</v>
@@ -2329,16 +2329,16 @@
         <v>2.52</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="W14" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2350,16 +2350,16 @@
         <v>11</v>
       </c>
       <c r="AA14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE14" t="n">
         <v>15.5</v>
@@ -2368,10 +2368,10 @@
         <v>60</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
         <v>29</v>
@@ -2383,7 +2383,7 @@
         <v>85</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
         <v>85</v>
@@ -2392,7 +2392,7 @@
         <v>85</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -670,100 +670,100 @@
         <v>5.3</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="V2" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
         <v>10.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AC2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD2" t="n">
         <v>11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AL2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -808,22 +808,22 @@
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>1.02</v>
@@ -838,7 +838,7 @@
         <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
         <v>1.17</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
@@ -985,55 +985,55 @@
         <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="W4" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA4" t="n">
         <v>18</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>24</v>
       </c>
       <c r="AC4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.05</v>
+        <v>2.84</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J5" t="n">
-        <v>1.06</v>
+        <v>2.24</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>1.34</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P5" t="n">
         <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
         <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.38</v>
@@ -1240,7 +1240,7 @@
         <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
@@ -1249,70 +1249,70 @@
         <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD6" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AE6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK6" t="n">
         <v>29</v>
       </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AL6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN6" t="n">
         <v>22</v>
       </c>
-      <c r="AI6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>25</v>
-      </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -1348,7 +1348,7 @@
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
         <v>1.84</v>
@@ -1357,7 +1357,7 @@
         <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>1.36</v>
@@ -1393,7 +1393,7 @@
         <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1489,10 +1489,10 @@
         <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1507,7 +1507,7 @@
         <v>1.45</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
         <v>2.36</v>
@@ -1525,10 +1525,10 @@
         <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>24</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG8" t="n">
         <v>12</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1567,19 +1567,19 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -1636,10 +1636,10 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
         <v>1.87</v>
@@ -1648,25 +1648,25 @@
         <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
         <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1696,13 +1696,13 @@
         <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
@@ -1711,7 +1711,7 @@
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G10" t="n">
         <v>980</v>
@@ -1795,7 +1795,7 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="W10" t="n">
         <v>1.01</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G11" t="n">
         <v>1.63</v>
@@ -1912,31 +1912,31 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="Q11" t="n">
         <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
         <v>2.58</v>
       </c>
       <c r="X11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="n">
         <v>980</v>
@@ -1948,7 +1948,7 @@
         <v>140</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
@@ -1960,34 +1960,34 @@
         <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
         <v>6.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I12" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>3.8</v>
@@ -2044,49 +2044,49 @@
         <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
         <v>2.66</v>
       </c>
       <c r="T12" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB12" t="n">
         <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>13</v>
@@ -2098,28 +2098,28 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>19</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
         <v>2.08</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
@@ -2173,25 +2173,25 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
         <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T13" t="n">
         <v>1.55</v>
@@ -2200,61 +2200,61 @@
         <v>2.6</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W13" t="n">
         <v>1.37</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
         <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
         <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>11.5</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G14" t="n">
         <v>6.2</v>
       </c>
-      <c r="G14" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H14" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="I14" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
         <v>4.6</v>
@@ -2311,49 +2311,49 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S14" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="W14" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
       </c>
       <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>11</v>
-      </c>
       <c r="AA14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
@@ -2362,37 +2362,37 @@
         <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,76 +667,76 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="G2" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB2" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB2" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
@@ -745,31 +745,31 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK2" t="n">
         <v>260</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
@@ -808,7 +808,7 @@
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -853,7 +853,7 @@
         <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.36</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.03</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.38</v>
@@ -1231,37 +1231,37 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>14.5</v>
@@ -1291,13 +1291,13 @@
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
         <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="I7" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.63</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.86</v>
+        <v>2.92</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,10 +1411,10 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="I8" t="n">
         <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.19</v>
       </c>
-      <c r="S8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
         <v>42</v>
@@ -1543,13 +1543,13 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,19 +1558,19 @@
         <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
         <v>25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>28</v>
       </c>
       <c r="AL8" t="n">
         <v>160</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
@@ -1660,7 +1660,7 @@
         <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
         <v>1.6</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
         <v>980</v>
@@ -1795,7 +1795,7 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
         <v>1.01</v>
@@ -1888,10 +1888,10 @@
         <v>1.63</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J11" t="n">
         <v>4.8</v>
@@ -1915,13 +1915,13 @@
         <v>2.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
@@ -1933,13 +1933,13 @@
         <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X11" t="n">
         <v>28</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="n">
         <v>55</v>
@@ -1978,16 +1978,16 @@
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
         <v>6.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2032,7 +2032,7 @@
         <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2110,10 +2110,10 @@
         <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
@@ -2155,82 +2155,82 @@
         <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="V13" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA13" t="n">
         <v>27</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
         <v>15.5</v>
@@ -2239,22 +2239,22 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
         <v>11.5</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="I14" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>2.48</v>
+        <v>2.94</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="W14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF14" t="n">
         <v>55</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AL14" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -2452,7 +2452,7 @@
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -673,7 +673,7 @@
         <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I2" t="n">
         <v>1.96</v>
@@ -694,13 +694,13 @@
         <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
         <v>1.36</v>
@@ -709,7 +709,7 @@
         <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -718,7 +718,7 @@
         <v>2.04</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -760,16 +760,16 @@
         <v>140</v>
       </c>
       <c r="AK2" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN2" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>1.52</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.17</v>
+        <v>2.46</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>2.92</v>
       </c>
       <c r="W3" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -871,13 +871,13 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -958,7 +958,7 @@
         <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.25</v>
@@ -967,7 +967,7 @@
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q4" t="n">
         <v>1.89</v>
@@ -1084,10 +1084,10 @@
         <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.43</v>
@@ -1105,7 +1105,7 @@
         <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
@@ -1141,7 +1141,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1237,7 +1237,7 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
         <v>1.9</v>
@@ -1249,13 +1249,13 @@
         <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
         <v>1.64</v>
@@ -1297,7 +1297,7 @@
         <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1354,10 +1354,10 @@
         <v>1.65</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.36</v>
@@ -1369,7 +1369,7 @@
         <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
         <v>1.9</v>
@@ -1477,100 +1477,100 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>1.88</v>
+        <v>2.32</v>
       </c>
       <c r="H8" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>160</v>
@@ -1579,10 +1579,10 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="G9" t="n">
         <v>2.64</v>
@@ -1621,13 +1621,13 @@
         <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.37</v>
@@ -1636,16 +1636,16 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
         <v>1.34</v>
@@ -1654,70 +1654,70 @@
         <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
         <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1912,7 +1912,7 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q11" t="n">
         <v>1.48</v>
@@ -1963,7 +1963,7 @@
         <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
         <v>25</v>
@@ -1978,13 +1978,13 @@
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
         <v>42</v>
@@ -2020,19 +2020,19 @@
         <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>2.66</v>
       </c>
       <c r="I12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2047,28 +2047,28 @@
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
         <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
         <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
         <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
@@ -2110,10 +2110,10 @@
         <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
@@ -2161,13 +2161,13 @@
         <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2188,13 +2188,13 @@
         <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
         <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
         <v>2.46</v>
@@ -2230,19 +2230,19 @@
         <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
         <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G14" t="n">
         <v>6.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="I14" t="n">
         <v>1.62</v>
@@ -2314,10 +2314,10 @@
         <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
         <v>1.79</v>
@@ -2326,13 +2326,13 @@
         <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
         <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
         <v>2.6</v>
@@ -2341,7 +2341,7 @@
         <v>1.17</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9.6</v>
@@ -2356,13 +2356,13 @@
         <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
         <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF14" t="n">
         <v>55</v>
@@ -2377,7 +2377,7 @@
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AK14" t="n">
         <v>85</v>
@@ -2386,13 +2386,13 @@
         <v>85</v>
       </c>
       <c r="AM14" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2437,7 +2437,7 @@
         <v>1.05</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH2" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,70 +802,70 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G3" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>1.41</v>
       </c>
       <c r="I3" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="J3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="S3" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
         <v>2.92</v>
       </c>
       <c r="W3" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
         <v>46</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,10 +874,10 @@
         <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -955,19 +955,19 @@
         <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
         <v>1.89</v>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
         <v>1.87</v>
@@ -1018,7 +1018,7 @@
         <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
         <v>24</v>
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1105,22 +1105,22 @@
         <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
         <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
         <v>2.04</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="n">
         <v>42</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1213,49 +1213,49 @@
         <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
         <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
         <v>1.64</v>
@@ -1354,22 +1354,22 @@
         <v>1.65</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>1.9</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="P8" t="n">
         <v>1.67</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
       </c>
       <c r="Z8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>32</v>
       </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>30</v>
-      </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,88 +1612,88 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
         <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
         <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>36</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
         <v>29</v>
@@ -1705,19 +1705,19 @@
         <v>170</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1768,7 +1768,7 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
         <v>1.1</v>
@@ -1777,16 +1777,16 @@
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="Q10" t="n">
         <v>1.21</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,7 +1795,7 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
         <v>1.01</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.61</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.63</v>
       </c>
       <c r="H11" t="n">
         <v>5.7</v>
@@ -1894,55 +1894,55 @@
         <v>5.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="Q11" t="n">
         <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="S11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="V11" t="n">
         <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA11" t="n">
         <v>140</v>
@@ -1960,34 +1960,34 @@
         <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="H12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.66</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.5</v>
       </c>
-      <c r="S12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
         <v>280</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
         <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
         <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I13" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="V13" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="W13" t="n">
         <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
         <v>27</v>
       </c>
       <c r="AB13" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
         <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G14" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.59</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.62</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2305,58 +2305,58 @@
         <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
         <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="W14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB14" t="n">
         <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>10</v>
@@ -2368,31 +2368,31 @@
         <v>55</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AK14" t="n">
         <v>85</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="15">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.45</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.2</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
         <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="G3" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
         <v>6.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AD3" t="n">
         <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="4">
@@ -955,7 +955,7 @@
         <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -964,7 +964,7 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
         <v>1.86</v>
@@ -973,10 +973,10 @@
         <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
         <v>1.87</v>
@@ -1078,7 +1078,7 @@
         <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
         <v>5.8</v>
@@ -1099,19 +1099,19 @@
         <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
         <v>1.9</v>
@@ -1126,7 +1126,7 @@
         <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>42</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1222,10 +1222,10 @@
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1234,13 +1234,13 @@
         <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
         <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.31</v>
@@ -1249,22 +1249,22 @@
         <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W6" t="n">
         <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
         <v>27</v>
@@ -1273,10 +1273,10 @@
         <v>290</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
         <v>16.5</v>
@@ -1354,16 +1354,16 @@
         <v>1.65</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
         <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>3.45</v>
@@ -1378,10 +1378,10 @@
         <v>1.84</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
         <v>1.94</v>
@@ -1477,100 +1477,100 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.23</v>
       </c>
-      <c r="S8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
         <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK8" t="n">
         <v>24</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>27</v>
       </c>
       <c r="AL8" t="n">
         <v>130</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,16 +1615,16 @@
         <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.8</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1645,25 +1645,25 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
         <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
         <v>15.5</v>
@@ -1687,37 +1687,37 @@
         <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="n">
         <v>170</v>
       </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="G10" t="n">
-        <v>980</v>
+        <v>2.64</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2.86</v>
       </c>
       <c r="I10" t="n">
         <v>980</v>
@@ -1762,7 +1762,7 @@
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1777,16 +1777,16 @@
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,13 +1795,13 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H11" t="n">
         <v>5.7</v>
@@ -1894,100 +1894,100 @@
         <v>5.9</v>
       </c>
       <c r="J11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.9</v>
       </c>
-      <c r="K11" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="V11" t="n">
         <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="n">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AA11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
         <v>18.5</v>
@@ -2083,46 +2083,46 @@
         <v>280</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="I13" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
@@ -2170,70 +2170,70 @@
         <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U13" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="V13" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF13" t="n">
         <v>30</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
         <v>15.5</v>
@@ -2242,22 +2242,22 @@
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
         <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14">
@@ -2293,16 +2293,16 @@
         <v>7</v>
       </c>
       <c r="H14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.58</v>
       </c>
-      <c r="I14" t="n">
-        <v>1.59</v>
-      </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.35</v>
@@ -2311,37 +2311,37 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S14" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="W14" t="n">
         <v>1.16</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9.6</v>
@@ -2353,43 +2353,43 @@
         <v>14.5</v>
       </c>
       <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG14" t="n">
         <v>25</v>
       </c>
-      <c r="AC14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>24</v>
-      </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AK14" t="n">
         <v>85</v>
       </c>
       <c r="AL14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>7.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,121 +658,121 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ankara Demirspor</t>
+          <t>Mardin Buyuksehir Belediye</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kahramanmaras Istiklal Spor</t>
+          <t>Belediye Derincespor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>1.05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>970</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>1.03</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>970</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>970</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>2.04</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -793,121 +793,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Erbaaspor</t>
+          <t>Ankara Demirspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Elazigspor</t>
+          <t>Kahramanmaras Istiklal Spor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.2</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>1.46</v>
+        <v>2.48</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>2.86</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>3.05</v>
+        <v>1.66</v>
       </c>
       <c r="W3" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>24</v>
       </c>
-      <c r="AD3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>970</v>
-      </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -923,117 +923,117 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mersin Idman Yurdu</t>
+          <t>Erbaaspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Isparta 32 Spor</t>
+          <t>Elazigspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K4" t="n">
         <v>7</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V4" t="n">
-        <v>2.26</v>
+        <v>3.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Iskenderunspor</t>
+          <t>Mersin Idman Yurdu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>Isparta 32 Spor</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.78</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.8</v>
-      </c>
       <c r="J5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.35</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI5" t="n">
         <v>40</v>
       </c>
-      <c r="AG5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Iskenderunspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.1</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>1.94</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK6" t="n">
         <v>120</v>
       </c>
-      <c r="AF6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AO6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,34 +1333,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Batman Petrolspor</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.8</v>
+        <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>9.800000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>1.49</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1369,91 +1369,91 @@
         <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>2.54</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.13</v>
+        <v>1.66</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Batman Petrolspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.84</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.94</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>2.54</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>1.14</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AL9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>San Juan FC</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="G10" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
-        <v>980</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.5</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.55</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>San Juan FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>5.7</v>
+        <v>2.78</v>
       </c>
       <c r="I11" t="n">
-        <v>5.9</v>
+        <v>980</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>4.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
-        <v>1.71</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>2.58</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.98</v>
+        <v>1.64</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W12" t="n">
         <v>2.48</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>7.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.7</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="R13" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="V13" t="n">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
         <v>70</v>
       </c>
-      <c r="AK13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>60</v>
-      </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,260 +2273,395 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.6</v>
+        <v>3.55</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="I14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.58</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.85</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="V14" t="n">
-        <v>2.72</v>
+        <v>1.92</v>
       </c>
       <c r="W14" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.6</v>
+        <v>15.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>26</v>
       </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AJ14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM14" t="n">
         <v>60</v>
       </c>
-      <c r="AG14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>110</v>
-      </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dundee Utd</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Friendly Matches</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2025-12-17</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Potiguar</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Esporte Clube de Patos</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F16" t="n">
         <v>1.05</v>
       </c>
-      <c r="G15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.05</v>
       </c>
-      <c r="I15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J16" t="n">
         <v>1.05</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>950</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>1.01</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M16" t="n">
         <v>1.01</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>1.02</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O16" t="n">
         <v>1.23</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>1.01</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R16" t="n">
         <v>1.18</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S16" t="n">
         <v>1.01</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T16" t="n">
         <v>1.01</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U16" t="n">
         <v>1.01</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V16" t="n">
         <v>1.01</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W16" t="n">
         <v>1.01</v>
       </c>
-      <c r="X15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO15" t="n">
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,49 +667,49 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
         <v>970</v>
       </c>
       <c r="H2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
         <v>970</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.03</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>1.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
         <v>1.01</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="S3" t="n">
-        <v>2.86</v>
+        <v>10.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.66</v>
+        <v>100</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>1.08</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,94 +937,94 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>3.75</v>
+        <v>500</v>
       </c>
       <c r="W4" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5">
@@ -1072,103 +1072,103 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6">
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.96</v>
+        <v>1.32</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
       <c r="I6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.7</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>3.85</v>
       </c>
       <c r="S6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W6" t="n">
         <v>4.1</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,34 +1285,34 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM6" t="n">
         <v>40</v>
       </c>
-      <c r="AG6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AN6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO6" t="n">
         <v>120</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="G7" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.35</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1477,67 +1477,67 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S8" t="n">
         <v>3.55</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.2</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="W8" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1546,10 +1546,10 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
         <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
         <v>4.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL9" t="n">
         <v>50</v>
       </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="G10" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
@@ -1774,85 +1774,85 @@
         <v>3.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="n">
         <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
         <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AL10" t="n">
         <v>170</v>
       </c>
       <c r="AM10" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="H11" t="n">
-        <v>2.78</v>
+        <v>2.44</v>
       </c>
       <c r="I11" t="n">
         <v>980</v>
@@ -1897,13 +1897,13 @@
         <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
         <v>1.1</v>
@@ -1924,16 +1924,16 @@
         <v>1.55</v>
       </c>
       <c r="T11" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="W11" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
         <v>30</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="n">
         <v>4.5</v>
@@ -2035,61 +2035,61 @@
         <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="X12" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
@@ -2098,13 +2098,13 @@
         <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
         <v>16.5</v>
@@ -2122,7 +2122,7 @@
         <v>7.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2158,70 +2158,70 @@
         <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W13" t="n">
         <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
         <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2239,10 +2239,10 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
@@ -2251,13 +2251,13 @@
         <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -2287,73 +2287,73 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.04</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.08</v>
-      </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
         <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U14" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="V14" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>9.800000000000001</v>
@@ -2365,10 +2365,10 @@
         <v>18.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AH14" t="n">
         <v>15.5</v>
@@ -2377,10 +2377,10 @@
         <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
         <v>38</v>
@@ -2389,10 +2389,10 @@
         <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="AO14" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>6.8</v>
       </c>
       <c r="G15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H15" t="n">
         <v>1.53</v>
@@ -2440,34 +2440,34 @@
         <v>4.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>2.84</v>
@@ -2479,10 +2479,10 @@
         <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
         <v>13.5</v>
@@ -2503,7 +2503,7 @@
         <v>60</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2512,13 +2512,13 @@
         <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AK15" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
@@ -2527,7 +2527,7 @@
         <v>120</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2557,52 +2557,52 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.05</v>
       </c>
-      <c r="G16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K16" t="n">
-        <v>950</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N16" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
         <v>1.01</v>
@@ -2611,58 +2611,58 @@
         <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,69 +653,69 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mardin Buyuksehir Belediye</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Belediye Derincespor</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
         <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.01</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.03</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -739,7 +739,7 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>1.08</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ankara Demirspor</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kahramanmaras Istiklal Spor</t>
+          <t>Batman Petrolspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,31 +826,31 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>10.5</v>
+        <v>1.66</v>
       </c>
       <c r="T3" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -859,13 +859,13 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>1.1</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.08</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -877,7 +877,7 @@
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -907,13 +907,13 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Erbaaspor</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Elazigspor</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>500</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.01</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mersin Idman Yurdu</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Isparta 32 Spor</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>1.99</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.03</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>990</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,75 +1193,75 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Iskenderunspor</t>
+          <t>San Juan FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="G6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>980</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.32</v>
       </c>
-      <c r="H6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R6" t="n">
-        <v>3.85</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1288,37 +1288,37 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.66</v>
+        <v>1.61</v>
       </c>
       <c r="G7" t="n">
-        <v>2.68</v>
+        <v>1.63</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>2.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>1.59</v>
+        <v>2.56</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB7" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
         <v>22</v>
       </c>
-      <c r="AA7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>6.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Batman Petrolspor</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.6</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.92</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.42</v>
+        <v>1.69</v>
       </c>
       <c r="W8" t="n">
-        <v>1.16</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.88</v>
+        <v>3.65</v>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>2.02</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>2.94</v>
+        <v>5.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="S9" t="n">
-        <v>4.6</v>
+        <v>2.46</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>2.64</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.98</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
       </c>
-      <c r="Y9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>85</v>
+        <v>18.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>19.5</v>
+        <v>200</v>
       </c>
       <c r="AO9" t="n">
-        <v>130</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.16</v>
+        <v>6.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>1.54</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.36</v>
+        <v>2.84</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI10" t="n">
         <v>28</v>
       </c>
-      <c r="AA10" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,801 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>San Juan FC</t>
+          <t>Potiguar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>Esporte Clube de Patos</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>2.92</v>
       </c>
       <c r="H11" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="I11" t="n">
-        <v>980</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Swiss Super League</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Grasshoppers Zurich</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="X12" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Swiss Super League</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>FC Zurich</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Lugano</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X13" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL13" t="n">
         <v>38</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Swiss Super League</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>FC Basel</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Dundee Utd</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X15" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Potiguar</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Esporte Clube de Patos</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X16" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>1.09</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.08</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Batman Petrolspor</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>1.42</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.04</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>120</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,40 +826,40 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.05</v>
+        <v>6.8</v>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>110</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.66</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.63</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.1</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>San Juan FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>1.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>2.44</v>
       </c>
       <c r="I4" t="n">
-        <v>5.2</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.1</v>
       </c>
-      <c r="N4" t="n">
-        <v>3.15</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>1.21</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>1.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>2.04</v>
+        <v>1.76</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.26</v>
+        <v>1.55</v>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>1.56</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>2.46</v>
       </c>
       <c r="T5" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>10</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>San Juan FC</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.56</v>
+        <v>2.98</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>980</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>1.52</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S6" t="n">
-        <v>1.55</v>
+        <v>2.74</v>
       </c>
       <c r="T6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.65</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.61</v>
+        <v>3.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1.63</v>
+        <v>3.95</v>
       </c>
       <c r="H7" t="n">
-        <v>5.8</v>
+        <v>1.95</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>1.98</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>2.02</v>
       </c>
       <c r="W7" t="n">
-        <v>2.56</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="n">
         <v>60</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>80</v>
-      </c>
       <c r="AN7" t="n">
-        <v>6.8</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.42</v>
+        <v>1.53</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.69</v>
+        <v>2.84</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE8" t="n">
         <v>14</v>
       </c>
-      <c r="Z8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>24</v>
-      </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,396 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Potiguar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Esporte Clube de Patos</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.65</v>
+        <v>2.06</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="I9" t="n">
-        <v>2.02</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>2.46</v>
+        <v>1.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>2.64</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Dundee Utd</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X10" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Potiguar</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Esporte Clube de Patos</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.48</v>
+        <v>1.46</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>1.47</v>
       </c>
       <c r="H2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J2" t="n">
         <v>5.5</v>
       </c>
-      <c r="I2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.38</v>
-      </c>
       <c r="K2" t="n">
-        <v>2.42</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
-        <v>1.41</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.51</v>
+        <v>6.2</v>
       </c>
       <c r="O2" t="n">
-        <v>2.92</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>1.12</v>
+        <v>2.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>1.55</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>1.71</v>
       </c>
       <c r="S2" t="n">
-        <v>32</v>
+        <v>2.36</v>
       </c>
       <c r="T2" t="n">
-        <v>4.7</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.22</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.66</v>
+        <v>3.15</v>
       </c>
       <c r="X2" t="n">
-        <v>3.5</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>560</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AK2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL2" t="n">
         <v>27</v>
       </c>
-      <c r="AH2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.42</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2.52</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>2.56</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>1.51</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
-        <v>170</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>San Juan FC</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.56</v>
+        <v>3.8</v>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.44</v>
+        <v>1.92</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>1.96</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="S4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.55</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.65</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.55</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.56</v>
+        <v>7.4</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>1.51</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
         <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>2.96</v>
       </c>
       <c r="W5" t="n">
-        <v>2.78</v>
+        <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>200</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,530 +1193,125 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Potiguar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Esporte Clube de Patos</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.98</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.33</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.05</v>
       </c>
-      <c r="N6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.74</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.59</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Swiss Super League</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FC Basel</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X7" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Dundee Utd</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X8" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Potiguar</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Esporte Clube de Patos</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G9" t="n">
-        <v>11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>32</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO9" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.46</v>
+        <v>7.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.47</v>
+        <v>7.4</v>
       </c>
       <c r="H2" t="n">
-        <v>7.4</v>
+        <v>1.48</v>
       </c>
       <c r="I2" t="n">
-        <v>7.6</v>
+        <v>1.51</v>
       </c>
       <c r="J2" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.15</v>
       </c>
-      <c r="W2" t="n">
-        <v>3.15</v>
-      </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>8.6</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.2</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.88</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.56</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>3.7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>2.28</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.76</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>2.72</v>
+        <v>8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>2.34</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>7.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.92</v>
+        <v>2.38</v>
       </c>
       <c r="I4" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>2.74</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.69</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
-        <v>2.7</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG4" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16</v>
-      </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL4" t="n">
         <v>95</v>
       </c>
-      <c r="AK4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>36</v>
-      </c>
       <c r="AM4" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1072,73 +1072,73 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="I5" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.58</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1147,37 +1147,37 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1210,10 +1210,10 @@
         <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
         <v>5.2</v>
@@ -1222,7 +1222,7 @@
         <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1249,7 +1249,7 @@
         <v>1.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
@@ -1273,13 +1273,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,7 +1288,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -715,70 +715,70 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,531 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Potiguar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Esporte Clube de Patos</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.7</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.76</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>8</v>
+        <v>1.09</v>
       </c>
       <c r="T3" t="n">
-        <v>2.34</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>7.8</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Swiss Super League</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FC Basel</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Dundee Utd</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X5" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Potiguar</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Esporte Clube de Patos</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,276 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Dundee Utd</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Potiguar</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Esporte Clube de Patos</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
